--- a/medicine/Enfance/René_Charvin/René_Charvin.xlsx
+++ b/medicine/Enfance/René_Charvin/René_Charvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Charvin</t>
+          <t>René_Charvin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Charvin, né le 20 octobre 1926 à Chambéry (Savoie) et mort le 30 janvier 2007 à Crémieu (Isère), est un écrivain français, auteur de littérature érotique, de roman policier, de roman d'espionnage et de littérature religieuse pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Charvin</t>
+          <t>René_Charvin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur prolifique de romans de gare érotiques, il écrit plusieurs séries dans ce genre, dont celle de Belle « qui ne connaît d'autres règles que le plaisir »[1]. Il publie également deux romans policiers, La Chair fraîche en 1979 et Un crime au couvent en 1992 racontant l'histoire d'une fillette violée et assassinée en 1847.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur prolifique de romans de gare érotiques, il écrit plusieurs séries dans ce genre, dont celle de Belle « qui ne connaît d'autres règles que le plaisir ». Il publie également deux romans policiers, La Chair fraîche en 1979 et Un crime au couvent en 1992 racontant l'histoire d'une fillette violée et assassinée en 1847.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Charvin</t>
+          <t>René_Charvin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série La Panthère
-La Panthère sort ses griffes, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 283. (1954)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série La Panthère</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Panthère sort ses griffes, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 283. (1954)
 La Panthère chasse à Londres, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 292. (1954)
 La Panthère fait patte de velours, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 303 (1954)
  Signé : La Panthère, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 312 (1954)
@@ -571,9 +593,47 @@
 La Panthère chasse à Londres, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 614 (1970)
 La Panthère fait patte de velours, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 617 (1970)
 La Panthère veut sa proie, Éditions de l'Arabesque, coll. « Espionnage, action, policier » no 620 (1970)
-La Panthère à l'affût, Euredif, coll. « Atmosphère » no 70 (1974)
-Série Belle
-Belle amoureuse, Eurédif, coll. « Aphrodite » no 64 (1972)
+La Panthère à l'affût, Euredif, coll. « Atmosphère » no 70 (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Belle</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Belle amoureuse, Eurédif, coll. « Aphrodite » no 64 (1972)
 Un adolescent pour Belle, Éditions du Phénix, coll. « Cupidon » no 41 (1974)  (ISBN 2-85235-042-4)
 Belle en enfer, Eurédif, coll. « Aphrodite » no 129 (1974)  (ISBN 2-7167-0319-1), réédition Eurédif, coll. « Belle » no 6 (1979)  (ISBN 2-7167-0319-1)
 Belle et l'Innocence, Eurédif, coll. « Aphrodite » no 135 (1974)  (ISBN 2-7167-0336-1), réédition Eurédif, coll. « Belle » no 8 (1979)  (ISBN 2-7167-0336-1)
@@ -631,18 +691,94 @@
 Belle au Yémen, Eurédif, coll. « Belle » no 35 (1984)  (ISBN 2-7167-1106-2)
 Belle au harem, Eurédif, coll. « Belle » no 36 (1984)  (ISBN 2-7167-1131-3)
 Belle odalisque, Eurédif, coll. « Belle » no 37 (1984)  (ISBN 2-7167-1184-4)
-Belle et l'Amant incomplet, Eurédif, coll. « Belle » no 38 (1984)  (ISBN 2-7167-1205-0)
-Série Gwen
-Les Vengeances de Gwen, Eurédif, coll. « Une aventure de Gwen » no 1 (1982)  (ISBN 2-7167-0861-4)
+Belle et l'Amant incomplet, Eurédif, coll. « Belle » no 38 (1984)  (ISBN 2-7167-1205-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Gwen</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Vengeances de Gwen, Eurédif, coll. « Une aventure de Gwen » no 1 (1982)  (ISBN 2-7167-0861-4)
 Gwen et les call-girls, Eurédif, coll. « Une aventure de Gwen » no 2 (1982)  (ISBN 2-7167-0897-5)
 Gwenn et les Jeunes Filles en fleur, Eurédif, coll. « Une aventure de Gwen » no 4  (1983)  (ISBN 2-7167-0967-X)
 Gwen chasse le Proxénète, Eurédif, coll. « Une aventure de Gwen » no 5 (1983)  (ISBN 2-7167-0998-X)
 Gwen et l'Amour maudit, Eurédif, coll. « Une aventure de Gwen » no 6 (1983)  (ISBN 2-7167-1066-X)
 Gwen face à la Mafia, Eurédif, coll. « Une aventure de Gwen » no 7 (1984)  (ISBN 2-7167-1098-8)
 Gwen et les Maîtres-chanteurs, Eurédif, coll. « Une aventure de Gwen » no 8 (1984)  (ISBN 2-7167-1145-3)
-Tue Gwen, tue !, Eurédif, coll. « Une aventure de Gwen » no 9 (1984)  (ISBN 2-7167-1217-4)
-Autres romans
-Orgueilleuse Agnès, éditions des Remparts, coll. « Rêves bleus » n°46 (1962)
+Tue Gwen, tue !, Eurédif, coll. « Une aventure de Gwen » no 9 (1984)  (ISBN 2-7167-1217-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Orgueilleuse Agnès, éditions des Remparts, coll. « Rêves bleus » n°46 (1962)
 J'ai épousé une actrice, éditions des Remparts, coll. « Rêves bleus » n°58 (1963)
 Son premier grand rôle, éditions des Remparts, coll. « Mirabelle » n°154 (1963)
 Miracle en Bresse, éditions des Remparts, coll. « Rêves bleus » n°90 (1964)
@@ -657,51 +793,159 @@
 Yo ou la Philosophie du supplice, Eurédif, coll. « Diane » no 38 (1976)  (ISBN 2-7167-0393-0)
 La Villa aux volets clos, Eurédif, coll. « Orties blanches » no 21 (1980)  (ISBN 2-7167-0721-9)
 La Courtisane, Presses de la Cité, coll. « Aphrodite » no 12 (1989)  (ISBN 2-258-03012-9)
-La Dévergondée, Presses de la Cité, coll. « Aphrodite » no 18 (1990)  (ISBN 2-285-00249-1)
-Autres romans de littérature policière
-La Chair fraîche, Eurédif, coll. « Suspense poche » no 108 (1979)  (ISBN 2-7167-0666-2)
-Un crime au couvent, Fleuve noir, coll. « Les Drames de l'histoire » no 2 (1992)  (ISBN 2-265-04679-5)
-Autres ouvrages
-Le Village en flammes : histoire véridique de Pierre Vaux, instituteur et bagnard, Cêtre (1993)  (ISBN 2-87823-031-0)
+La Dévergondée, Presses de la Cité, coll. « Aphrodite » no 18 (1990)  (ISBN 2-285-00249-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans de littérature policière</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Chair fraîche, Eurédif, coll. « Suspense poche » no 108 (1979)  (ISBN 2-7167-0666-2)
+Un crime au couvent, Fleuve noir, coll. « Les Drames de l'histoire » no 2 (1992)  (ISBN 2-265-04679-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Village en flammes : histoire véridique de Pierre Vaux, instituteur et bagnard, Cêtre (1993)  (ISBN 2-87823-031-0)
 Par un doux matin d'avril, Éditions L'Harmattan, (1994)  (ISBN 2-7384-2869-X)
 Moi, Jean-Marie Vianney  : curé d'Ars, CLD (1995)  (ISBN 2-85443-262-2)
 Merveilleuse Thérésa : les folles amours de Madame Tallien, Pygmalion, coll. « Les Dames du lac » (1997)  (ISBN 2-85704-528-X)
 Les Roses de Malmaison, Pygmalion (1999)  (ISBN 2-85704-577-8)
 La Divine Princesse, Pygmalion (2000)  (ISBN 2-85704-623-5), réédition Éditions Libra diffusio (2001) (édition en gros caractères)  (ISBN 2-84492-030-6)
-La Peste Caroline : la petite sœur de Napoléon, Éditions Libra diffusio (2002) (édition en gros caractères)  (ISBN 2-84492-113-2)
-Ouvrages religieux pour la jeunesse
-On voyait Dieu dans ses yeux : "journal" d'Anne de Guigné, Éditions Pierre Téqui (1998)  (ISBN 2-7403-0547-8)
+La Peste Caroline : la petite sœur de Napoléon, Éditions Libra diffusio (2002) (édition en gros caractères)  (ISBN 2-84492-113-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages religieux pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>On voyait Dieu dans ses yeux : "journal" d'Anne de Guigné, Éditions Pierre Téqui (1998)  (ISBN 2-7403-0547-8)
 Je ferai de toi mon ange : Guy de Fontgalland, Éditions Pierre Téqui (2001)  (ISBN 2-7403-0902-3)
 Sébastien, le saint percé de flèches, Éditions Pierre Téqui, coll. « Les Sentinelles » no 16 (2005)  (ISBN 2-7403-1206-7)
 Saint Ignace de Loyola : fondateur de la Compagnie de Jésus, Éditions Pierre Téqui, coll. « Les Saints du monde » (2006)  (ISBN 2-7403-1272-5)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Charvin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>René_Charvin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Charvin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 403</t>
